--- a/src/main/resources/excel/dgrid_output.xlsx
+++ b/src/main/resources/excel/dgrid_output.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6F4183-9B70-46FE-8F14-2F335FA7BA8E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FABD56-55E6-4D8B-82AE-475A381E6DA8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>DynamicGrid Demo</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>${cell}</t>
+  </si>
+  <si>
+    <t>${i}</t>
+  </si>
+  <si>
+    <t>$[SUM($B$4:$B$5)]</t>
   </si>
   <si>
     <t/>
@@ -426,7 +432,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,46 +451,49 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
+      <c r="A2" s="0"/>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
       <c r="A4" s="0" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4" t="n">
         <v>2.130000114440918</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" ht="15.0" customHeight="true">
-      <c r="A5" t="s" s="0">
-        <v>9</v>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25" ht="15.0" customHeight="true">
+      <c r="A5" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="B5" t="n" s="4">
         <v>3.2899999618530273</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="6" ht="15.0" customHeight="true"/>
+    <row r="6" ht="15.0" customHeight="true">
+      <c r="A6" s="0">
+        <f>0</f>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
